--- a/leave/src/main/resources/WeeklySanity.xlsx
+++ b/leave/src/main/resources/WeeklySanity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18C53E8-B862-4996-B52F-160DC7A1F9A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E399CA-CE18-4165-B78B-E1B2E35E4F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="96">
   <si>
     <t>TCID</t>
   </si>
@@ -135,15 +135,6 @@
     <t>Sanity//Accural//CarryForwardWithTenure.xlsx</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.Financial</t>
-  </si>
-  <si>
-    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.Calender</t>
-  </si>
-  <si>
-    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.March</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -270,9 +261,6 @@
     <t>com.darwinbox.leaves.Accural.MultipleAllotment.Daily.December.MutlipleAllotment</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.Accural.MultipleAllotment.MAWithCF.MutlipleAllotmentWithCarryForward</t>
-  </si>
-  <si>
     <t>Sanity//Accural//MultipleLeaveAllotment.xlsx</t>
   </si>
   <si>
@@ -307,6 +295,30 @@
   </si>
   <si>
     <t>21</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Tenure.Financial.Tenure</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.MultipleAllotment.MAWithCF.Calender.MutlipleAllotmentWithCarryForward</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.MultipleAllotment.MAWithCF.June.MutlipleAllotmentWithCarryForward</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.MultipleAllotment.MAWithCF.Fiancial.MutlipleAllotmentWithCarryForward</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.Calender</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.Financial</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.March</t>
+  </si>
+  <si>
+    <t>CF Balance With Tenure- March Year</t>
   </si>
 </sst>
 </file>
@@ -666,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -786,7 +798,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -809,7 +821,7 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -829,10 +841,10 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -846,19 +858,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -869,19 +881,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
       <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
         <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -892,22 +904,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>7</v>
@@ -915,19 +927,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -938,19 +950,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -961,22 +973,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>7</v>
@@ -984,19 +996,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
         <v>62</v>
       </c>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -1007,19 +1019,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
         <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" t="s">
-        <v>70</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1030,22 +1042,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>7</v>
@@ -1053,19 +1065,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -1076,19 +1088,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
         <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" t="s">
-        <v>80</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1099,22 +1111,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
         <v>75</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
         <v>77</v>
-      </c>
-      <c r="C19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" t="s">
-        <v>81</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>7</v>
@@ -1122,19 +1134,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" t="s">
         <v>84</v>
-      </c>
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" t="s">
-        <v>88</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1145,19 +1157,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
         <v>83</v>
       </c>
-      <c r="B21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" t="s">
-        <v>87</v>
-      </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -1168,22 +1180,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
         <v>86</v>
       </c>
-      <c r="C22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" t="s">
-        <v>90</v>
-      </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>7</v>
